--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20540" windowHeight="8360"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -57,10 +57,10 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>TVector2</t>
-  </si>
-  <si>
-    <t>TVector2[]</t>
+    <t>TRange</t>
+  </si>
+  <si>
+    <t>TRange[]</t>
   </si>
   <si>
     <t>float</t>
@@ -121,12 +121,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,6 +149,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,7 +163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,12 +178,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -173,15 +224,38 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,85 +269,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,13 +294,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,169 +438,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,11 +497,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,36 +542,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -565,224 +566,234 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1078,165 +1089,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="30.1442307692308" customWidth="1"/>
-    <col min="2" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="18.9326923076923" customWidth="1"/>
-    <col min="5" max="5" width="23.1538461538462" customWidth="1"/>
-    <col min="6" max="6" width="17.8461538461538" customWidth="1"/>
-    <col min="7" max="7" width="19.0769230769231" customWidth="1"/>
-    <col min="8" max="8" width="22.5384615384615" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" customWidth="1"/>
-    <col min="11" max="11" width="15.2980769230769" customWidth="1"/>
+    <col min="1" max="1" width="30.1416666666667" style="2" customWidth="1"/>
+    <col min="2" max="3" width="15.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.9333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.3" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="111" customHeight="1" spans="1:11">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -1248,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1256,7 +1268,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1264,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1272,7 +1284,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27510" windowHeight="13905"/>
+    <workbookView windowWidth="20540" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>id</t>
   </si>
@@ -45,10 +45,10 @@
     <t>noTouchSlowDown</t>
   </si>
   <si>
-    <t>coinEffectTriggerProb</t>
-  </si>
-  <si>
-    <t>hpToCoin</t>
+    <t>coinAddProb</t>
+  </si>
+  <si>
+    <t>coinValue</t>
   </si>
   <si>
     <t>int</t>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>ID（正在使用 - 1）
@@ -98,7 +101,7 @@
     <t>战斗中，击杀[1-5]等级病毒触发金币特效概率。（其实击杀每个病毒都有增加金币，但是为了不过于频繁，需要间歇触发。）</t>
   </si>
   <si>
-    <t>血量到金币转换比</t>
+    <t>击杀[1-5]等级病毒金币价值</t>
   </si>
   <si>
     <t>[0.5,0.65,0.8,1.0,1.3]</t>
@@ -113,7 +116,10 @@
     <t>[(-80,-60),(60,80),(-20,20)]</t>
   </si>
   <si>
-    <t>[0.1,0.15,0.2,0.25,0.3]</t>
+    <t>[0.2,0.3,0.4,0.5,0.6]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
   </si>
 </sst>
 </file>
@@ -121,9 +127,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -149,75 +155,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,8 +176,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,32 +268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +499,50 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,259 +591,211 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1089,155 +1091,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="30.1416666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1442307692308" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.9333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5416666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.3" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.9326923076923" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.1538461538462" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5384615384615" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="111" customHeight="1" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -1245,11 +1247,11 @@
       <c r="I4" s="2">
         <v>0.2</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.05</v>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1268,7 +1270,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1276,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1284,7 +1286,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20540" windowHeight="8360"/>
+    <workbookView windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>coinValue</t>
+  </si>
+  <si>
+    <t>vibrateDuration</t>
+  </si>
+  <si>
+    <t>vibrateInterval</t>
+  </si>
+  <si>
+    <t>explosionSfxInterval</t>
+  </si>
+  <si>
+    <t>coinSfxInterval</t>
   </si>
   <si>
     <t>int</t>
@@ -102,6 +114,18 @@
   </si>
   <si>
     <t>击杀[1-5]等级病毒金币价值</t>
+  </si>
+  <si>
+    <t>击杀震动时长</t>
+  </si>
+  <si>
+    <t>击杀震动最小间隔</t>
+  </si>
+  <si>
+    <t>击杀爆炸音效最小播放间隔</t>
+  </si>
+  <si>
+    <t>金币音效最小间隔</t>
   </si>
   <si>
     <t>[0.5,0.65,0.8,1.0,1.3]</t>
@@ -127,9 +151,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -147,6 +171,97 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -154,15 +269,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,116 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,12 +324,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,169 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +521,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,15 +559,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -547,17 +568,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,166 +615,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -748,54 +772,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1091,30 +1115,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="30.1442307692308" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1416666666667" style="2" customWidth="1"/>
     <col min="2" max="3" width="15.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.9326923076923" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.1538461538462" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5384615384615" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.2980769230769" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="18.9333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5416666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1148,98 +1174,134 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="111" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="111" customHeight="1" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -1248,10 +1310,22 @@
         <v>0.2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1270,7 +1344,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1278,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1286,7 +1360,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20540" windowHeight="8360"/>
+    <workbookView windowWidth="24560" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -143,6 +143,36 @@
   </si>
   <si>
     <t>金币音效最小间隔</t>
+  </si>
+  <si>
+    <t>bulletSpeed</t>
+  </si>
+  <si>
+    <t>子弹飞行速度</t>
+  </si>
+  <si>
+    <t>px/s</t>
+  </si>
+  <si>
+    <t>bulletHDist</t>
+  </si>
+  <si>
+    <t>子弹横向距离</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>bulletVDist</t>
+  </si>
+  <si>
+    <t>子弹纵向距离</t>
+  </si>
+  <si>
+    <t>bulletMaxCount</t>
+  </si>
+  <si>
+    <t>一次开火最大子弹数</t>
   </si>
 </sst>
 </file>
@@ -150,9 +180,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -184,8 +214,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +246,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -207,47 +293,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,54 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,31 +353,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,90 +515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,55 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,24 +552,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,26 +573,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +596,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -614,88 +624,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,58 +734,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1119,10 +1149,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1393,6 +1423,71 @@
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1">
+        <v>160</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t>金币音效最小间隔</t>
-  </si>
-  <si>
-    <t>bulletSpeed</t>
-  </si>
-  <si>
-    <t>子弹飞行速度</t>
-  </si>
-  <si>
-    <t>px/s</t>
   </si>
   <si>
     <t>bulletHDist</t>
@@ -181,8 +172,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -201,12 +192,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -214,24 +213,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,23 +239,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,15 +269,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,28 +293,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,14 +315,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,13 +344,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,43 +416,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,121 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,23 +541,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,21 +552,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,8 +589,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,151 +620,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1436,7 +1427,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="1">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -1453,40 +1444,23 @@
         <v>46</v>
       </c>
       <c r="D17" s="1">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D18" s="1">
-        <v>160</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1">
         <v>20</v>
       </c>
     </row>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="18588" windowHeight="9995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -172,9 +172,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,6 +192,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,31 +245,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,99 +298,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,19 +344,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,55 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,103 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,7 +542,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,7 +566,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,41 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,166 +635,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -795,54 +795,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1138,29 +1138,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.1442307692308" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1481481481481" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4903846153846" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.2307692307692" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4907407407407" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.2314814814815" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8461538461538" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.0769230769231" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5384615384615" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.2980769230769" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.8425925925926" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.0740740740741" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.537037037037" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1574074074074" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7685185185185" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.2962962962963" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.8796296296296" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="16" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>44</v>
@@ -1472,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1480,7 +1480,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1488,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1496,7 +1496,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18588" windowHeight="9995"/>
+    <workbookView windowWidth="24560" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -36,7 +36,7 @@
     <t>病毒尺寸1~5</t>
   </si>
   <si>
-    <t>[0.5,0.65,0.8,1.0,1.3]</t>
+    <t>[0.7,0.9,1.1,1.3,1.5]</t>
   </si>
   <si>
     <t>spawnVirusInterval</t>
@@ -70,7 +70,7 @@
 最多3个分裂方向</t>
   </si>
   <si>
-    <t>[(-80,-60),(60,80),(-20,20)]</t>
+    <t>[(-5,5),(-10,10),(-20,20)]</t>
   </si>
   <si>
     <t>hpRandomRange</t>
@@ -85,12 +85,18 @@
     <t>病毒速度随机范围</t>
   </si>
   <si>
+    <t>(1.2,1.4)</t>
+  </si>
+  <si>
     <t>waveClearVirusCount</t>
   </si>
   <si>
     <t>当前波怪物清空数量，（例如配置为2，当场上只剩下2个病毒时，则认为该波病毒已清空。）</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>noTouchSlowDown</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>当没有点击屏幕时，病毒减速，为1时不触发减速。</t>
   </si>
   <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>coinAddProb</t>
   </si>
   <si>
@@ -118,7 +127,7 @@
     <t>击杀[1-5]等级病毒金币价值</t>
   </si>
   <si>
-    <t>[1,2,3,4,5]</t>
+    <t>[1,2,4,8,10]</t>
   </si>
   <si>
     <t>vibrateDuration</t>
@@ -160,10 +169,34 @@
     <t>子弹纵向距离</t>
   </si>
   <si>
-    <t>bulletMaxCount</t>
-  </si>
-  <si>
-    <t>一次开火最大子弹数</t>
+    <t>maxFireSpeed</t>
+  </si>
+  <si>
+    <t>最大开火速度</t>
+  </si>
+  <si>
+    <t>发/s</t>
+  </si>
+  <si>
+    <t>buffSpeedRange</t>
+  </si>
+  <si>
+    <t>buff速度范围</t>
+  </si>
+  <si>
+    <t>100~200</t>
+  </si>
+  <si>
+    <t>px/s</t>
+  </si>
+  <si>
+    <t>frameRate</t>
+  </si>
+  <si>
+    <t>游戏帧数，-1表示不限制。</t>
+  </si>
+  <si>
+    <t>帧/s</t>
   </si>
 </sst>
 </file>
@@ -171,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,9 +225,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,39 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,44 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -298,6 +292,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -305,6 +321,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -312,24 +352,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,25 +377,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,157 +545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +568,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -562,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,6 +624,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -638,154 +671,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -795,54 +831,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1138,29 +1174,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.1481481481481" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.1538461538462" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.4907407407407" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.2314814814815" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4903846153846" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.2307692307692" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.8425925925926" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.0740740740741" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.537037037037" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1574074074074" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7685185185185" style="1" customWidth="1"/>
-    <col min="11" max="12" width="15.2962962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.8461538461538" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.0769230769231" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5288461538462" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="1" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20.8796296296296" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1174,24 +1210,24 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="16" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1202,13 +1238,13 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1222,7 +1258,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1239,7 +1275,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1256,7 +1292,7 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1273,8 +1309,8 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>21</v>
@@ -1282,186 +1318,223 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.2</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3">
         <v>0.05</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3">
         <v>0.08</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="2">
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="2">
+        <v>120</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
-        <v>20</v>
+      <c r="C20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1472,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1480,7 +1553,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1488,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1496,7 +1569,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -70,7 +70,7 @@
 最多3个分裂方向</t>
   </si>
   <si>
-    <t>[(-5,5),(-10,10),(-20,20)]</t>
+    <t>[(-50,-5),(3,30),(2,20)]</t>
   </si>
   <si>
     <t>hpRandomRange</t>
@@ -184,7 +184,7 @@
     <t>buff速度范围</t>
   </si>
   <si>
-    <t>100~200</t>
+    <t>250~350</t>
   </si>
   <si>
     <t>px/s</t>
@@ -197,6 +197,33 @@
   </si>
   <si>
     <t>帧/s</t>
+  </si>
+  <si>
+    <t>hitVirusSlowdown</t>
+  </si>
+  <si>
+    <t>命中病毒减速系数</t>
+  </si>
+  <si>
+    <t>系数</t>
+  </si>
+  <si>
+    <t>buffSpawnDirection</t>
+  </si>
+  <si>
+    <t>buff产生时方向范围(以下方向为0)</t>
+  </si>
+  <si>
+    <t>(-30,30)</t>
+  </si>
+  <si>
+    <t>virusBombShakeScreenRate</t>
+  </si>
+  <si>
+    <t>病毒爆炸震屏系数</t>
+  </si>
+  <si>
+    <t>像素</t>
   </si>
 </sst>
 </file>
@@ -204,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -225,13 +252,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -261,16 +281,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,12 +314,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -315,54 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,25 +410,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,31 +518,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,115 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,15 +595,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,21 +612,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,6 +646,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -668,151 +686,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1535,6 +1562,54 @@
       </c>
       <c r="E20" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="25360" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t>系数</t>
+  </si>
+  <si>
+    <t>hitVirusSlowdownCD</t>
+  </si>
+  <si>
+    <t>命中病毒减速作用时间</t>
+  </si>
+  <si>
+    <t>秒</t>
   </si>
   <si>
     <t>buffSpawnDirection</t>
@@ -232,8 +241,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -252,6 +261,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,9 +283,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,9 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +312,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -305,91 +328,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,181 +419,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,32 +610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,159 +666,189 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,10 +1212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1581,35 +1590,52 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="25360" windowHeight="9180"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>像素</t>
+  </si>
+  <si>
+    <t>reviveCountDown</t>
+  </si>
+  <si>
+    <t>复活倒计时</t>
   </si>
 </sst>
 </file>
@@ -241,9 +247,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -282,6 +288,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -290,15 +327,61 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,14 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -329,76 +404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,13 +425,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,19 +533,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,139 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +618,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,9 +648,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,11 +689,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,169 +710,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1533,7 +1539,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>52</v>
@@ -1601,7 +1607,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>65</v>
@@ -1636,6 +1642,23 @@
       </c>
       <c r="E24" s="1" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -239,6 +239,39 @@
   </si>
   <si>
     <t>复活倒计时</t>
+  </si>
+  <si>
+    <t>reviveInvincibleCD</t>
+  </si>
+  <si>
+    <t>复活后无敌时间</t>
+  </si>
+  <si>
+    <t>formulaArgsVirusHpFix</t>
+  </si>
+  <si>
+    <t>病毒血量受关卡、火力值影响数值</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>formulaArgsVirusSpawnCountFix</t>
+  </si>
+  <si>
+    <t>病毒产生数量受关卡、火力值影响数值</t>
+  </si>
+  <si>
+    <t>[3,0,0,0]</t>
+  </si>
+  <si>
+    <t>formulaArgsCoinExchange</t>
+  </si>
+  <si>
+    <t>金币受已解锁关卡，金币价值影响数值</t>
+  </si>
+  <si>
+    <t>[2,0,0,1,0,999999,0,1]</t>
   </si>
 </sst>
 </file>
@@ -246,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -267,13 +300,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -282,6 +308,30 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,15 +347,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,7 +377,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,37 +400,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,29 +437,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -425,31 +458,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +584,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,79 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,49 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,11 +646,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,17 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -668,6 +705,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,171 +738,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,10 +1251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1659,6 +1692,65 @@
       </c>
       <c r="E25" s="1" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25360" windowHeight="9180"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>[2,0,0,1,0,999999,0,1]</t>
+  </si>
+  <si>
+    <t>coinIncomeRefreshCD</t>
+  </si>
+  <si>
+    <t>金币收益刷新CD</t>
   </si>
 </sst>
 </file>
@@ -279,10 +285,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -300,6 +306,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -321,6 +334,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -338,10 +359,41 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,6 +405,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -360,88 +448,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -458,43 +464,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,133 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,17 +652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,21 +675,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +706,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -734,160 +749,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,10 +1257,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1751,6 +1757,23 @@
       </c>
       <c r="D29" s="2" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -280,37 +280,54 @@
     <t>数值公式相关如下：</t>
   </si>
   <si>
-    <t>formulaArgsVirusHpFix</t>
-  </si>
-  <si>
-    <t>病毒血量受关卡、火力值影响数值</t>
-  </si>
-  <si>
-    <t>[3,0,0,1,1,10]</t>
-  </si>
-  <si>
-    <t>formulaArgsVirusSpawnCountFix</t>
-  </si>
-  <si>
-    <t>病毒产生数量受关卡、火力值影响数值</t>
-  </si>
-  <si>
-    <t>[3,0,0,0]</t>
+    <t xml:space="preserve">内置参数：
+fp = fire_power
+fs = fire_speed
+cv = coin_value
+ci = coin_income
+gl = game_level
+fpl = fire_power_limitation
+ugl = unlocked_game_level
+sk = streak
+自定义参数：
+a0~an = 程序传入参数a1~an
+</t>
+  </si>
+  <si>
+    <t>formulaArgsVirusHp</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>病毒血量受关卡火力值影响数值</t>
+  </si>
+  <si>
+    <t>clamp(fp/fpl,1,10)</t>
+  </si>
+  <si>
+    <t>formulaArgsVirusSpawnCount</t>
+  </si>
+  <si>
+    <t>病毒产生数量受关卡火力值影响数值</t>
   </si>
   <si>
     <t>formulaArgsCoinExchange</t>
   </si>
   <si>
-    <t>兑换金币受已解锁关卡，金币价值影响数值</t>
-  </si>
-  <si>
-    <t>[2,0,0,1,0,999999,0,1]</t>
+    <t>兑换金币受金币价值影响数值</t>
+  </si>
+  <si>
+    <t>cv*200</t>
   </si>
   <si>
     <t>formulaArgsDailySignCoin</t>
   </si>
   <si>
-    <t>签到金币奖励受关卡，金币价值影响</t>
+    <t>签到金币受金币价值影响</t>
+  </si>
+  <si>
+    <t>cv*0.1</t>
   </si>
 </sst>
 </file>
@@ -319,8 +336,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -340,20 +357,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,8 +370,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,8 +423,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +439,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -415,60 +479,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -481,6 +491,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -503,181 +520,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,21 +705,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -718,8 +720,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,168 +792,168 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -960,6 +977,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1311,15 +1331,15 @@
   <sheetPr/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A47" sqref="$A47:$XFD47"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="30.1538461538462" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.4903846153846" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
     <col min="4" max="4" width="32.2307692307692" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
@@ -1351,8 +1371,6 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:5">
@@ -1376,8 +1394,6 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" ht="16" spans="1:5">
@@ -1679,8 +1695,6 @@
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:5">
@@ -1738,8 +1752,6 @@
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:5">
@@ -1780,8 +1792,6 @@
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:5">
@@ -1828,7 +1838,6 @@
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="1"/>
       <c r="C42" s="9"/>
       <c r="D42" s="7"/>
     </row>
@@ -1866,68 +1875,68 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="9180"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <t>病毒血量受关卡火力值影响数值</t>
   </si>
   <si>
-    <t>clamp(fp/fpl,1,10)</t>
+    <t>min(max(fp/fpl,1),10)</t>
   </si>
   <si>
     <t>formulaArgsVirusSpawnCount</t>
@@ -335,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -356,7 +356,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +456,28 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -379,114 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,31 +514,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,13 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,127 +676,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,17 +711,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,9 +734,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,17 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -805,97 +787,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -904,52 +904,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -85,7 +85,7 @@
 最多3个分裂方向</t>
   </si>
   <si>
-    <t>[(-50,-5),(3,30),(2,20)]</t>
+    <t>[(-50,50),(-20,30),(-10,5)]</t>
   </si>
   <si>
     <t>hpRandomRange</t>
@@ -94,6 +94,9 @@
     <t>病毒血量随机范围</t>
   </si>
   <si>
+    <t>(1,1.4)</t>
+  </si>
+  <si>
     <t>speedRandomRange</t>
   </si>
   <si>
@@ -194,6 +197,18 @@
   </si>
   <si>
     <t>像素</t>
+  </si>
+  <si>
+    <t>其他：</t>
+  </si>
+  <si>
+    <t>dailySignUnlockLevel</t>
+  </si>
+  <si>
+    <t>每日签到解锁关卡</t>
+  </si>
+  <si>
+    <t>关卡5级解锁</t>
   </si>
   <si>
     <t>子弹射速相关：</t>
@@ -303,7 +318,7 @@
     <t>病毒血量受关卡火力值影响数值</t>
   </si>
   <si>
-    <t>min(max(fp/fpl,1),10)</t>
+    <t>min(max(fp/fpl,1),100)</t>
   </si>
   <si>
     <t>formulaArgsVirusSpawnCount</t>
@@ -318,16 +333,13 @@
     <t>兑换金币受金币价值影响数值</t>
   </si>
   <si>
-    <t>cv*200</t>
+    <t>cv*500</t>
   </si>
   <si>
     <t>formulaArgsDailySignCoin</t>
   </si>
   <si>
     <t>签到金币受金币价值影响</t>
-  </si>
-  <si>
-    <t>cv*0.1</t>
   </si>
 </sst>
 </file>
@@ -335,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -369,9 +381,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,23 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,6 +434,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -431,9 +449,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +472,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -456,44 +480,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,58 +729,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,161 +757,208 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1329,10 +1341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
@@ -1475,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>24</v>
@@ -1483,460 +1495,483 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D17" s="4">
         <v>0.05</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4">
         <v>0.1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="4">
         <v>0.1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4">
         <v>0.08</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3">
         <v>0.05</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" s="2" customFormat="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="4:4">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3">
         <v>26</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="3">
         <v>120</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="3">
-        <v>400</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:4">
-      <c r="A32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="D33" s="3">
+        <v>400</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="4"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:4">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="7"/>
+      <c r="E42" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43" s="3">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="3">
         <v>10</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="3">
-        <v>144000</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
+      <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+      <c r="D51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="8" t="s">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D49" s="3">
+      <c r="B52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>99</v>
+      <c r="C54" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -347,9 +347,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -367,8 +367,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,8 +382,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,10 +449,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,7 +473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,6 +482,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,69 +505,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,19 +526,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,91 +688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,67 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,20 +720,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +765,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -762,17 +789,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,181 +817,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,54 +996,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1339,29 +1339,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.2307692307692" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.2333333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5288461538462" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.525" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" ht="16" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>62</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>63</v>
@@ -1982,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1990,7 +1990,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1998,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2006,7 +2006,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -211,6 +211,27 @@
     <t>关卡5级解锁</t>
   </si>
   <si>
+    <t>aircraftHomeAnimaDist</t>
+  </si>
+  <si>
+    <t>大厅飞船待机动画移动距离</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>aircraftHomePosY</t>
+  </si>
+  <si>
+    <t>大厅飞船位置（距底边）</t>
+  </si>
+  <si>
+    <t>aircraftHomeScale</t>
+  </si>
+  <si>
+    <t>大厅飞船缩放</t>
+  </si>
+  <si>
     <t>子弹射速相关：</t>
   </si>
   <si>
@@ -218,9 +239,6 @@
   </si>
   <si>
     <t>子弹横向距离</t>
-  </si>
-  <si>
-    <t>px</t>
   </si>
   <si>
     <t>bulletVDist</t>
@@ -348,8 +366,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -367,16 +385,44 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,50 +438,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,6 +449,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,16 +506,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,23 +523,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,6 +735,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,21 +781,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -765,26 +801,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,171 +835,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1720,258 +1738,306 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="4:4">
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:4">
-      <c r="A30" s="1" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D28" s="3">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="3">
+        <v>500</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="3">
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="4:4">
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3">
         <v>120</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="E35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:4">
-      <c r="A36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" s="4"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="C45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="3">
         <v>3</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="C46" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3">
         <v>3</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="2" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="3">
         <v>10</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="C51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="3">
         <v>14400</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
+    <row r="54" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="D54" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="8" t="s">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>101</v>
+      <c r="B56" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>大厅飞船缩放</t>
+  </si>
+  <si>
+    <t>bookVirusCollectKillCount</t>
+  </si>
+  <si>
+    <t>每击杀n个病毒可收集一次图鉴奖励</t>
+  </si>
+  <si>
+    <t>bookVirusCollectRewardDiamond</t>
+  </si>
+  <si>
+    <t>收集图鉴奖励获得钻石数量</t>
   </si>
   <si>
     <t>子弹射速相关：</t>
@@ -365,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -386,7 +398,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,16 +449,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,8 +502,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,7 +519,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,84 +535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,187 +556,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +763,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -785,201 +847,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,54 +1026,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1357,29 +1369,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.2333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.2307692307692" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.525" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5288461538462" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1426,7 +1438,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="16" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1786,51 +1798,45 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="4:4">
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:4">
-      <c r="A33" s="1" t="s">
+    <row r="31" s="2" customFormat="1" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:4">
+      <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="3">
-        <v>26</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D32" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="4:4">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
+      <c r="A35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="3">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
@@ -1843,201 +1849,235 @@
         <v>77</v>
       </c>
       <c r="D36" s="3">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3">
         <v>400</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="E38" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" s="4"/>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="C47" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="3">
         <v>3</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="C48" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="2" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" s="8"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="8"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="3">
         <v>10</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="3">
         <v>14400</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="8" t="s">
+    <row r="56" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
+      <c r="A56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D56" s="10" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>107</v>
+      <c r="B59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2056,7 +2096,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2064,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2072,7 +2112,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="11730"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>病毒血量随机范围</t>
   </si>
   <si>
-    <t>(1,1.4)</t>
+    <t>(0.9,1.2)</t>
   </si>
   <si>
     <t>speedRandomRange</t>
@@ -103,7 +103,7 @@
     <t>病毒速度随机范围</t>
   </si>
   <si>
-    <t>(1.2,1.4)</t>
+    <t>(1.1,1.3)</t>
   </si>
   <si>
     <t>waveClearVirusCount</t>
@@ -145,7 +145,7 @@
     <t>击杀[1-5]等级病毒金币价值</t>
   </si>
   <si>
-    <t>[1,2,3,4,5]</t>
+    <t>[1,2,3,5,8]</t>
   </si>
   <si>
     <t>vibrateDuration</t>
@@ -421,9 +421,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,16 +445,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,74 +467,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -550,6 +495,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,8 +542,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,187 +580,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +778,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,45 +794,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +822,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -871,16 +847,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,7 +889,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,124 +898,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1898,7 +1898,7 @@
         <v>82</v>
       </c>
       <c r="D35" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="4:4">

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -94,7 +94,7 @@
     <t>病毒血量随机范围</t>
   </si>
   <si>
-    <t>(0.9,1.2)</t>
+    <t>(1,1.4)</t>
   </si>
   <si>
     <t>speedRandomRange</t>
@@ -103,7 +103,7 @@
     <t>病毒速度随机范围</t>
   </si>
   <si>
-    <t>(1.1,1.3)</t>
+    <t>(1.2,1.4)</t>
   </si>
   <si>
     <t>waveClearVirusCount</t>
@@ -145,7 +145,7 @@
     <t>击杀[1-5]等级病毒金币价值</t>
   </si>
   <si>
-    <t>[1,2,3,5,8]</t>
+    <t>[1,2,3,4,5]</t>
   </si>
   <si>
     <t>vibrateDuration</t>
@@ -232,7 +232,22 @@
     <t>每日签到解锁关卡</t>
   </si>
   <si>
-    <t>关卡5级解锁</t>
+    <t>关卡6级解锁</t>
+  </si>
+  <si>
+    <t>weaponUnlockLevel</t>
+  </si>
+  <si>
+    <t>武器系统解锁关卡</t>
+  </si>
+  <si>
+    <t>bookUnlockLevel</t>
+  </si>
+  <si>
+    <t>图鉴系统解锁关卡</t>
+  </si>
+  <si>
+    <t>关卡0级解锁</t>
   </si>
   <si>
     <t>aircraftHomeAnimaDist</t>
@@ -402,9 +417,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -421,8 +436,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -437,11 +466,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,43 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,23 +504,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -541,29 +579,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -580,187 +595,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,8 +792,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,30 +857,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,175 +886,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,54 +1065,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1393,29 +1408,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.2333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.2307692307692" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.525" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5288461538462" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1462,7 +1477,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="16" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1830,36 +1845,36 @@
         <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="3">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:5">
       <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="3">
-        <v>500</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:4">
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -1870,269 +1885,275 @@
         <v>78</v>
       </c>
       <c r="D33" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:5">
       <c r="A34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="3">
+        <v>500</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="3">
-        <v>100</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="4:4">
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="3">
-        <v>26</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
+      <c r="D36" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:4">
+      <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="3">
-        <v>120</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="D37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="4:4">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" s="3">
+        <v>26</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="3">
+        <v>120</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:4">
-      <c r="A44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="E43" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="4"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:4">
-      <c r="A49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="C52" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="3">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="C53" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="3">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="C57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="3">
         <v>10</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="C58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="3">
         <v>14400</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="3" t="s">
+    <row r="61" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="D61" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>118</v>
@@ -2146,13 +2167,41 @@
         <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>119</v>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2171,7 +2220,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2179,7 +2228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2187,7 +2236,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="26415" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -197,6 +197,30 @@
   </si>
   <si>
     <t>像素</t>
+  </si>
+  <si>
+    <t>hitVirusShakeScale</t>
+  </si>
+  <si>
+    <t>命中病毒震动缩放倍数</t>
+  </si>
+  <si>
+    <t>倍</t>
+  </si>
+  <si>
+    <t>hitVirusShakeTimes</t>
+  </si>
+  <si>
+    <t>命中病毒震动次数</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>hitVirusShakeCD</t>
+  </si>
+  <si>
+    <t>命中病毒震动时间</t>
   </si>
   <si>
     <t>其他：</t>
@@ -377,10 +401,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -397,8 +421,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,6 +454,66 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,106 +528,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +549,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -556,187 +580,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,26 +777,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,27 +813,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -833,6 +837,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -847,151 +860,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,54 +1050,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1369,29 +1393,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.2307692307692" style="3" customWidth="1"/>
+    <col min="3" max="3" width="35.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.2333333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5288461538462" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.85" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.075" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.525" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1438,7 +1462,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" ht="16" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1727,357 +1751,408 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:4">
-      <c r="A26" s="1" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" s="2" customFormat="1" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="3">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="3">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" spans="1:5">
-      <c r="A29" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="3">
-        <v>500</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:4">
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:5">
       <c r="A30" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="3">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="3">
+        <v>40</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="34" s="2" customFormat="1" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="2" t="s">
+    <row r="35" s="2" customFormat="1" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="4:4">
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3">
+        <v>26</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="4:4">
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="3">
-        <v>26</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3">
+        <v>120</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="3">
-        <v>120</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="3">
-        <v>400</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="4"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:4">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="C51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3">
         <v>3</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="3">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="C55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="3">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:4">
-      <c r="A51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="2" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="3">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+    <row r="59" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2096,7 +2171,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2104,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2112,7 +2187,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="28720" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>id(vertical)</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>配置组名</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>游戏配置：</t>
+  </si>
+  <si>
+    <t>frameRate</t>
+  </si>
+  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>ID（正在使用 - 1）</t>
-  </si>
-  <si>
-    <t>游戏配置：</t>
-  </si>
-  <si>
-    <t>frameRate</t>
   </si>
   <si>
     <t>游戏帧数，-1表示不限制。</t>
@@ -381,9 +396,6 @@
     <t>formulaArgsVirusHp</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>病毒血量受关卡火力值影响数值</t>
   </si>
   <si>
@@ -416,10 +428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -437,14 +449,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,29 +470,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -488,25 +477,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,8 +516,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +531,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -557,24 +569,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,13 +607,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,169 +757,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,41 +804,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,16 +841,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,159 +883,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,22 +1422,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.2307692307692" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.8461538461538" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19.0769230769231" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.5288461538462" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7692307692308" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
     <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
     <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
@@ -1434,7 +1444,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1444,764 +1454,1230 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
-        <v>1</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3">
+        <v>60</v>
+      </c>
+      <c r="H3" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="6:8">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" ht="16" spans="1:5">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" ht="16" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4">
         <v>0.05</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4">
         <v>0.1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4">
         <v>0.1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4">
         <v>0.08</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3">
         <v>0.05</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D24" s="3">
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>70</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3">
         <v>0.1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:5">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D30" s="3">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="F31" s="3">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3">
         <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F33" s="3">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3">
+        <v>40</v>
+      </c>
+      <c r="H33" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D34" s="3">
         <v>500</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:4">
+        <v>84</v>
+      </c>
+      <c r="F34" s="3">
+        <v>500</v>
+      </c>
+      <c r="G34" s="3">
+        <v>500</v>
+      </c>
+      <c r="H34" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:4">
+      <c r="F35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D36" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:4">
+      <c r="F36" s="3">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>100</v>
+      </c>
+      <c r="H36" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D37" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="4:4">
+      <c r="F37" s="3">
+        <v>20</v>
+      </c>
+      <c r="G37" s="3">
+        <v>20</v>
+      </c>
+      <c r="H37" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="4:8">
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:4">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="4:8">
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:4">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3">
         <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F41" s="3">
+        <v>26</v>
+      </c>
+      <c r="G41" s="3">
+        <v>26</v>
+      </c>
+      <c r="H41" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D42" s="3">
         <v>120</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>84</v>
+      </c>
+      <c r="F42" s="3">
+        <v>120</v>
+      </c>
+      <c r="G42" s="3">
+        <v>120</v>
+      </c>
+      <c r="H42" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D43" s="3">
         <v>400</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
+        <v>108</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8">
       <c r="D49" s="4"/>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:4">
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3">
         <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D53" s="3">
         <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
+        <v>61</v>
+      </c>
+      <c r="F53" s="3">
+        <v>3</v>
+      </c>
+      <c r="G53" s="3">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
       <c r="C54" s="8"/>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="3:8">
       <c r="C55" s="8"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:4">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D57" s="3">
         <v>10</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>61</v>
+      </c>
+      <c r="F57" s="3">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D58" s="3">
         <v>14400</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="179" customHeight="1" spans="1:4">
+        <v>61</v>
+      </c>
+      <c r="F58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>128</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28720" windowHeight="13200"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -296,6 +296,36 @@
   </si>
   <si>
     <t>收集图鉴奖励获得钻石数量</t>
+  </si>
+  <si>
+    <t>maxWeaponTrialCount</t>
+  </si>
+  <si>
+    <t>最大武器满级试用次数（每日）</t>
+  </si>
+  <si>
+    <t>energyRecoverInterval</t>
+  </si>
+  <si>
+    <t>每1个能量（体力值）恢复间隔时间（秒）</t>
+  </si>
+  <si>
+    <t>energyRecoverWin</t>
+  </si>
+  <si>
+    <t>获胜获得体力值数量</t>
+  </si>
+  <si>
+    <t>energyBattleCost</t>
+  </si>
+  <si>
+    <t>每次战斗消耗体力值数量</t>
+  </si>
+  <si>
+    <t>energyMax</t>
+  </si>
+  <si>
+    <t>体力值上限</t>
   </si>
   <si>
     <t>子弹射速相关：</t>
@@ -428,9 +458,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -455,8 +485,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,62 +508,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,9 +523,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,24 +583,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,13 +637,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,169 +757,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,45 +828,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -857,11 +848,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,168 +914,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,54 +1107,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1420,27 +1450,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1057692307692" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7692307692308" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.1083333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1457,7 +1487,6 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1519,7 +1548,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="16" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2257,178 +2286,227 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="4:8">
-      <c r="D38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="4:8">
-      <c r="D39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:8">
-      <c r="A40" s="1" t="s">
+    <row r="38" s="2" customFormat="1" spans="1:8">
+      <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="3">
+        <v>300</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="3">
+        <v>300</v>
+      </c>
+      <c r="G39" s="3">
+        <v>300</v>
+      </c>
+      <c r="H39" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
+      <c r="H40" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="3">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="4:8">
+      <c r="D43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="4:8">
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="3">
         <v>26</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F46" s="3">
         <v>26</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G46" s="3">
         <v>26</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H46" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="3">
-        <v>120</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="3">
-        <v>120</v>
-      </c>
-      <c r="G42" s="3">
-        <v>120</v>
-      </c>
-      <c r="H42" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="3">
-        <v>400</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8">
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="6:8">
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="D47" s="3">
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="F47" s="3">
+        <v>120</v>
+      </c>
+      <c r="G47" s="3">
+        <v>120</v>
+      </c>
+      <c r="H47" s="3">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8">
-      <c r="D49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="3">
+        <v>400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="3"/>
@@ -2437,7 +2515,7 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D51" s="7"/>
       <c r="F51" s="7"/>
@@ -2446,73 +2524,68 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="3">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="3">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="3">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="3">
-        <v>3</v>
-      </c>
-      <c r="G53" s="3">
-        <v>3</v>
-      </c>
-      <c r="H53" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="8"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="6:8">
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="9"/>
+        <v>119</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -2520,164 +2593,238 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D57" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F57" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G57" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>118</v>
+      <c r="C58" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D58" s="3">
-        <v>14400</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F58" s="3">
-        <v>14400</v>
+        <v>3</v>
       </c>
       <c r="G58" s="3">
-        <v>14400</v>
+        <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="59" spans="6:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="8"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="3:8">
+      <c r="C60" s="8"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
+    <row r="61" s="1" customFormat="1" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>120</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="D62" s="3">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="3">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G63" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H63" s="3">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C67" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F63" s="3">
+      <c r="C68" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="3">
+      <c r="F68" s="3">
         <v>1</v>
       </c>
-      <c r="H63" s="3">
+      <c r="G68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="H68" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>128</v>
+      <c r="C69" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2696,7 +2843,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2704,7 +2851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2712,7 +2859,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="146">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>病毒尺寸1~5</t>
+  </si>
+  <si>
+    <t>[0.7,0.9,1.1,1.3,1.8]</t>
   </si>
   <si>
     <t>[0.7,0.9,1.1,1.3,1.5]</t>
@@ -187,6 +190,9 @@
     <t>金币音效最小间隔</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>hitVirusSlowdown</t>
   </si>
   <si>
@@ -328,6 +334,12 @@
     <t>体力值上限</t>
   </si>
   <si>
+    <t>energyExchange</t>
+  </si>
+  <si>
+    <t>体力值兑换（1钻石=x体力值）</t>
+  </si>
+  <si>
     <t>子弹射速相关：</t>
   </si>
   <si>
@@ -361,10 +373,13 @@
     <t>buff速度范围</t>
   </si>
   <si>
+    <t>150~250</t>
+  </si>
+  <si>
+    <t>px/s</t>
+  </si>
+  <si>
     <t>250~350</t>
-  </si>
-  <si>
-    <t>px/s</t>
   </si>
   <si>
     <t>buffSpawnDirection</t>
@@ -458,10 +473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -479,15 +494,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,9 +529,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,39 +568,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,7 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,7 +608,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,6 +628,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -637,43 +652,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,139 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +843,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -846,11 +894,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,30 +916,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,31 +943,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,133 +961,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,10 +1467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1565,264 +1580,264 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4">
         <v>0.05</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4">
         <v>0.05</v>
@@ -1836,19 +1851,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>0.1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4">
         <v>0.1</v>
@@ -1862,19 +1877,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4">
         <v>0.1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4">
         <v>0.1</v>
@@ -1888,19 +1903,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.08</v>
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="4">
         <v>0.08</v>
@@ -1914,19 +1929,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3">
         <v>0.5</v>
@@ -1940,19 +1955,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3">
         <v>0.05</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3">
         <v>0.05</v>
@@ -1966,19 +1981,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F23" s="3">
         <v>20</v>
@@ -1992,19 +2007,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3">
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3">
         <v>0.2</v>
@@ -2018,19 +2033,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -2044,19 +2059,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3">
         <v>0.1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3">
         <v>0.1</v>
@@ -2080,7 +2095,7 @@
     </row>
     <row r="29" s="1" customFormat="1" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="5"/>
@@ -2089,19 +2104,19 @@
     </row>
     <row r="30" s="2" customFormat="1" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3">
         <v>6</v>
@@ -2115,19 +2130,19 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F31" s="3">
         <v>6</v>
@@ -2141,19 +2156,19 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2167,19 +2182,19 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" s="3">
         <v>40</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F33" s="3">
         <v>40</v>
@@ -2193,19 +2208,19 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3">
         <v>500</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F34" s="3">
         <v>500</v>
@@ -2219,13 +2234,13 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D35" s="3">
         <v>1.5</v>
@@ -2242,16 +2257,16 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F36" s="3">
         <v>100</v>
@@ -2265,16 +2280,16 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F37" s="3">
         <v>20</v>
@@ -2288,13 +2303,13 @@
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -2311,19 +2326,19 @@
     </row>
     <row r="39" s="2" customFormat="1" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D39" s="3">
         <v>300</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F39" s="3">
         <v>300</v>
@@ -2337,16 +2352,16 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3">
         <v>4</v>
@@ -2360,16 +2375,16 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D41" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41" s="3">
         <v>4</v>
@@ -2383,16 +2398,16 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D42" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3">
         <v>10</v>
@@ -2404,234 +2419,231 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="4:8">
-      <c r="D43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="4:8">
-      <c r="D44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="43" s="2" customFormat="1" spans="1:8">
+      <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="3">
-        <v>26</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="3">
-        <v>26</v>
-      </c>
-      <c r="G46" s="3">
-        <v>26</v>
-      </c>
-      <c r="H46" s="3">
-        <v>26</v>
-      </c>
+      <c r="B43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="4:8">
+      <c r="D44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="4:8">
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D47" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F47" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="G47" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="H47" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D48" s="3">
+        <v>120</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="3">
+        <v>120</v>
+      </c>
+      <c r="G48" s="3">
+        <v>120</v>
+      </c>
+      <c r="H48" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="49" spans="6:8">
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="6:8">
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="2" t="s">
+    <row r="51" spans="6:8">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:8">
+      <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="D52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8">
-      <c r="D54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="6:8">
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:8">
-      <c r="A56" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="G53" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="3">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="3">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3</v>
-      </c>
+      <c r="B54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F58" s="3">
         <v>3</v>
@@ -2643,11 +2655,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="3:8">
-      <c r="C59" s="8"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="3">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="8"/>
@@ -2655,176 +2687,182 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="3">
-        <v>10</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10</v>
-      </c>
+    <row r="61" spans="3:8">
+      <c r="C61" s="8"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>128</v>
+        <v>39</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D63" s="3">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="3">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3">
+        <v>10</v>
+      </c>
+      <c r="H63" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="3">
         <v>14400</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="3">
         <v>14400</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G64" s="3">
         <v>14400</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H64" s="3">
         <v>14400</v>
       </c>
-    </row>
-    <row r="64" spans="6:8">
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
     </row>
     <row r="65" spans="6:8">
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>133</v>
+    <row r="66" spans="6:8">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26055" windowHeight="11730"/>
+    <workbookView windowWidth="21800" windowHeight="10880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -480,9 +480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -497,6 +497,29 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -514,32 +537,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -558,33 +560,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,24 +599,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,6 +628,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -658,37 +658,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,145 +826,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,8 +866,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,26 +881,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,17 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,148 +952,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,54 +1128,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1471,27 +1471,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36:H37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2596153846154" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2019230769231" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1569,7 +1569,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="16" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2879,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2887,7 +2887,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2895,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2903,7 +2903,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="10880"/>
+    <workbookView windowWidth="26055" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -244,6 +244,12 @@
     <t>命中病毒震动时间</t>
   </si>
   <si>
+    <t>mysticalBonusProbability</t>
+  </si>
+  <si>
+    <t>神秘大奖出现概率</t>
+  </si>
+  <si>
     <t>其他：</t>
   </si>
   <si>
@@ -308,6 +314,15 @@
   </si>
   <si>
     <t>[10,20,50,100,200,300,500,1000]</t>
+  </si>
+  <si>
+    <t>bookVirusCollectNeedPlayAD</t>
+  </si>
+  <si>
+    <t>累计杀n个病毒可收集图鉴奖励对应是否需要播放广告</t>
+  </si>
+  <si>
+    <t>[0,1,0,1,0,1,0,1]</t>
   </si>
   <si>
     <t>maxWeaponTrialCount</t>
@@ -479,8 +494,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -500,6 +515,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -507,10 +529,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,47 +559,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,46 +583,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,7 +628,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,187 +673,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,53 +869,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,6 +906,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -952,148 +967,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,54 +1143,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1471,27 +1486,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2596153846154" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.2019230769231" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1569,7 +1584,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="16" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2089,66 +2104,63 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="6:8">
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="29" spans="6:8">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="3">
-        <v>6</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3">
-        <v>6</v>
-      </c>
-      <c r="H30" s="3">
-        <v>6</v>
-      </c>
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3">
         <v>6</v>
@@ -2171,71 +2183,71 @@
         <v>82</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:8">
       <c r="A33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="3">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="3">
+        <v>40</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="3">
-        <v>500</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F34" s="3">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="G34" s="3">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="H34" s="3">
-        <v>500</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:8">
@@ -2249,16 +2261,19 @@
         <v>90</v>
       </c>
       <c r="D35" s="3">
-        <v>1.5</v>
+        <v>500</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="F35" s="3">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="G35" s="3">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="H35" s="3">
-        <v>1.5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:8">
@@ -2266,68 +2281,68 @@
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>93</v>
+      <c r="D36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
       <c r="A38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="3">
-        <v>3</v>
-      </c>
-      <c r="F38" s="3">
-        <v>3</v>
-      </c>
-      <c r="G38" s="3">
-        <v>3</v>
-      </c>
-      <c r="H38" s="3">
-        <v>3</v>
+      <c r="F38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:8">
@@ -2335,494 +2350,494 @@
         <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="3">
-        <v>300</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="3">
-        <v>300</v>
-      </c>
-      <c r="G39" s="3">
-        <v>300</v>
-      </c>
-      <c r="H39" s="3">
-        <v>300</v>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H40" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" s="3">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F41" s="3">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
-        <v>6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" s="3">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F42" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
       </c>
       <c r="F43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>5</v>
       </c>
       <c r="H43" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="3">
+        <v>60</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10</v>
+      </c>
+      <c r="G44" s="3">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" s="2" customFormat="1" spans="4:8">
-      <c r="D44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="4:8">
-      <c r="D45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="3">
-        <v>26</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="3">
-        <v>26</v>
-      </c>
-      <c r="G47" s="3">
-        <v>26</v>
-      </c>
-      <c r="H47" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="3">
-        <v>120</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="3">
-        <v>120</v>
-      </c>
-      <c r="G48" s="3">
-        <v>120</v>
-      </c>
-      <c r="H48" s="3">
-        <v>120</v>
-      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="4:8">
+      <c r="D46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="4:8">
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3">
+        <v>26</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="3">
+        <v>26</v>
+      </c>
+      <c r="G49" s="3">
+        <v>26</v>
+      </c>
+      <c r="H49" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="3">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="3">
+        <v>120</v>
+      </c>
+      <c r="G50" s="3">
+        <v>120</v>
+      </c>
+      <c r="H50" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G51" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H51" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="6:8">
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="6:8">
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="52" spans="6:8">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8">
-      <c r="D55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="6:8">
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:8">
-      <c r="A57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="D57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="C60" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="3">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F60" s="3">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H60" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="2" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="C61" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="3">
         <v>3</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F61" s="3">
         <v>3</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G61" s="3">
         <v>3</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H61" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="8"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="8"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" s="2" t="s">
+    <row r="62" spans="3:8">
+      <c r="C62" s="8"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="8"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="C65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="3">
         <v>15</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F65" s="3">
         <v>10</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G65" s="3">
         <v>10</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H65" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="2" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="C66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="3">
         <v>14400</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F66" s="3">
         <v>14400</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G66" s="3">
         <v>14400</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H66" s="3">
         <v>14400</v>
       </c>
     </row>
-    <row r="65" spans="6:8">
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="6:8">
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="2" t="s">
+    <row r="67" spans="6:8">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
+      <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="E69" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2858,17 +2873,63 @@
       <c r="C71" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>145</v>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +2940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2887,7 +2948,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2895,7 +2956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2903,7 +2964,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="26055" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -295,13 +295,19 @@
     <t>bookVirusCollectKillCount</t>
   </si>
   <si>
-    <t>每击杀n个病毒可收集一次图鉴奖励</t>
+    <t>累计杀n个病毒可收集图鉴奖励</t>
+  </si>
+  <si>
+    <t>[10,100,500,1000,2000,5000,10000,100000]</t>
   </si>
   <si>
     <t>bookVirusCollectRewardDiamond</t>
   </si>
   <si>
-    <t>收集图鉴奖励获得钻石数量</t>
+    <t>累计杀n个病毒可收集图鉴奖励对应钻石数量</t>
+  </si>
+  <si>
+    <t>[10,20,50,100,200,300,500,1000]</t>
   </si>
   <si>
     <t>maxWeaponTrialCount</t>
@@ -475,8 +481,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -493,6 +499,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -501,7 +515,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,22 +559,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,24 +588,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,22 +621,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,10 +636,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -652,187 +658,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,69 +849,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -929,6 +872,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -943,16 +919,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,133 +967,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1469,16 +1475,16 @@
   <sheetPr/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1083333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
     <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
     <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
@@ -2260,56 +2266,56 @@
         <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="3">
-        <v>200</v>
-      </c>
-      <c r="F36" s="3">
-        <v>100</v>
-      </c>
-      <c r="G36" s="3">
-        <v>100</v>
-      </c>
-      <c r="H36" s="3">
-        <v>100</v>
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="3">
-        <v>5</v>
-      </c>
-      <c r="F37" s="3">
-        <v>20</v>
-      </c>
-      <c r="G37" s="3">
-        <v>20</v>
-      </c>
-      <c r="H37" s="3">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -2326,13 +2332,13 @@
     </row>
     <row r="39" s="2" customFormat="1" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3">
         <v>300</v>
@@ -2352,13 +2358,13 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D40" s="3">
         <v>5</v>
@@ -2375,13 +2381,13 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D41" s="3">
         <v>5</v>
@@ -2398,13 +2404,13 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D42" s="3">
         <v>60</v>
@@ -2421,13 +2427,13 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -2456,7 +2462,7 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D46" s="5"/>
       <c r="F46" s="5"/>
@@ -2465,13 +2471,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D47" s="3">
         <v>26</v>
@@ -2491,13 +2497,13 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D48" s="3">
         <v>120</v>
@@ -2517,19 +2523,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D49" s="3">
         <v>400</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -2553,7 +2559,7 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D52" s="7"/>
       <c r="F52" s="7"/>
@@ -2562,51 +2568,51 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="4:8">
@@ -2622,7 +2628,7 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D57" s="7"/>
       <c r="F57" s="7"/>
@@ -2631,13 +2637,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
@@ -2657,13 +2663,13 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D59" s="3">
         <v>3</v>
@@ -2695,7 +2701,7 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="7"/>
@@ -2705,13 +2711,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D63" s="3">
         <v>15</v>
@@ -2731,13 +2737,13 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D64" s="3">
         <v>14400</v>
@@ -2767,44 +2773,44 @@
     </row>
     <row r="67" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D69" s="3">
         <v>1</v>
@@ -2821,48 +2827,48 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="26055" windowHeight="11730"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,24 +551,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,8 +574,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,17 +613,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +623,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,45 +652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,187 +673,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,23 +870,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,10 +893,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -934,18 +917,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,16 +940,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,19 +982,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,112 +1003,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2209,7 +2209,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>85</v>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>最大开火速度</t>
-  </si>
-  <si>
-    <t>发/s</t>
   </si>
   <si>
     <t>BUFF相关：</t>
@@ -494,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -521,11 +518,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,8 +555,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,14 +581,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,7 +596,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +633,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,61 +647,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,25 +670,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,157 +844,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,17 +873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,17 +891,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,174 +947,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,54 +1140,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1486,27 +1483,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2596153846154" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2019230769231" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1584,7 +1581,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="16" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2510,13 +2507,15 @@
       </c>
     </row>
     <row r="46" s="2" customFormat="1" spans="4:8">
-      <c r="D46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="4:8">
       <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2525,9 +2524,10 @@
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8">
@@ -2543,9 +2543,7 @@
       <c r="D49" s="3">
         <v>26</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3">
         <v>26</v>
       </c>
@@ -2569,9 +2567,7 @@
       <c r="D50" s="3">
         <v>120</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3">
         <v>120</v>
       </c>
@@ -2595,9 +2591,7 @@
       <c r="D51" s="3">
         <v>400</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3">
         <v>400</v>
       </c>
@@ -2608,72 +2602,77 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="6:8">
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+    <row r="52" spans="4:8">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="6:8">
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+    <row r="53" spans="4:8">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="G55" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="4:8">
@@ -2689,7 +2688,7 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" s="7"/>
       <c r="F59" s="7"/>
@@ -2698,13 +2697,13 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
@@ -2724,13 +2723,13 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
@@ -2762,7 +2761,7 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="7"/>
@@ -2772,13 +2771,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D65" s="3">
         <v>15</v>
@@ -2798,13 +2797,13 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" s="3">
         <v>14400</v>
@@ -2834,44 +2833,44 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2888,48 +2887,48 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2940,7 +2939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2948,7 +2947,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2956,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2964,7 +2963,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="10280"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>[0.7,0.9,1.1,1.3,1.8]</t>
-  </si>
-  <si>
-    <t>[0.7,0.9,1.1,1.3,1.5]</t>
   </si>
   <si>
     <t>spawnVirusInterval</t>
@@ -491,9 +488,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -511,8 +508,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,84 +539,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,8 +566,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -639,9 +621,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,6 +636,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -670,157 +667,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,24 +848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,26 +864,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,28 +900,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,151 +938,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,54 +1137,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1483,27 +1480,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:D51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2596153846154" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.2019230769231" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1581,7 +1578,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="16" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1598,264 +1595,264 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D17" s="4">
         <v>0.05</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="4">
         <v>0.05</v>
@@ -1869,19 +1866,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>0.1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4">
         <v>0.1</v>
@@ -1895,19 +1892,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D19" s="4">
         <v>0.1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4">
         <v>0.1</v>
@@ -1921,19 +1918,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4">
         <v>0.08</v>
@@ -1947,19 +1944,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3">
         <v>0.5</v>
@@ -1973,19 +1970,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D22" s="3">
         <v>0.05</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3">
         <v>0.05</v>
@@ -1999,19 +1996,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="3">
         <v>20</v>
@@ -2025,19 +2022,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="3">
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3">
         <v>0.2</v>
@@ -2051,19 +2048,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -2077,19 +2074,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D26" s="3">
         <v>0.1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="3">
         <v>0.1</v>
@@ -2103,13 +2100,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="3">
         <v>0.2</v>
@@ -2136,7 +2133,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5"/>
@@ -2145,19 +2142,19 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="3">
         <v>6</v>
@@ -2171,19 +2168,19 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3">
         <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="3">
         <v>6</v>
@@ -2197,19 +2194,19 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2223,19 +2220,19 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:8">
       <c r="A34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="D34" s="3">
         <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" s="3">
         <v>40</v>
@@ -2249,19 +2246,19 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="1:8">
       <c r="A35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="3">
         <v>500</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" s="3">
         <v>500</v>
@@ -2275,13 +2272,13 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:8">
       <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D36" s="3">
         <v>1.5</v>
@@ -2298,82 +2295,82 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
       <c r="A38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:8">
       <c r="A39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -2390,19 +2387,19 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="3">
         <v>300</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
@@ -2416,13 +2413,13 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="3">
         <v>5</v>
@@ -2439,13 +2436,13 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -2462,13 +2459,13 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="3">
         <v>60</v>
@@ -2485,13 +2482,13 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="3">
         <v>5</v>
@@ -2522,7 +2519,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2532,13 +2529,13 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D49" s="3">
         <v>26</v>
@@ -2556,13 +2553,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D50" s="3">
         <v>120</v>
@@ -2580,13 +2577,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D51" s="3">
         <v>400</v>
@@ -2618,7 +2615,7 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2628,51 +2625,51 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="4:8">
@@ -2688,7 +2685,7 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="7"/>
       <c r="F59" s="7"/>
@@ -2697,19 +2694,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -2723,19 +2720,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F61" s="3">
         <v>3</v>
@@ -2761,7 +2758,7 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="7"/>
@@ -2771,19 +2768,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="D65" s="3">
         <v>15</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F65" s="3">
         <v>10</v>
@@ -2797,19 +2794,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D66" s="3">
         <v>14400</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F66" s="3">
         <v>14400</v>
@@ -2833,44 +2830,44 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2887,48 +2884,48 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2947,7 +2944,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2955,7 +2952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2963,7 +2960,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>体力值兑换（1钻石=x体力值）</t>
+  </si>
+  <si>
+    <t>rateUsHintLevel</t>
+  </si>
+  <si>
+    <t>游戏打分提示（关卡）</t>
+  </si>
+  <si>
+    <t>[10,15,25,40,60,80,100]</t>
+  </si>
+  <si>
+    <t>关卡</t>
   </si>
   <si>
     <t>子弹射速相关：</t>
@@ -488,10 +500,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -508,24 +520,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,44 +535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,6 +549,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -599,6 +566,22 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -621,6 +604,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -636,21 +663,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -667,13 +679,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,169 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,23 +876,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,7 +910,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,6 +930,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -938,171 +970,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,54 +1149,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1480,27 +1492,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2596153846154" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2019230769231" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1578,7 +1590,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="16" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -2503,108 +2515,121 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" spans="4:8">
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+    <row r="46" s="2" customFormat="1" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="4:8">
+    <row r="47" s="2" customFormat="1" spans="4:8">
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="4:8">
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="3">
-        <v>26</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3">
-        <v>26</v>
-      </c>
-      <c r="G49" s="3">
-        <v>26</v>
-      </c>
-      <c r="H49" s="3">
-        <v>26</v>
-      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D50" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="G50" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="H50" s="3">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D51" s="3">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3">
+        <v>120</v>
+      </c>
+      <c r="G51" s="3">
+        <v>120</v>
+      </c>
+      <c r="H51" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="3">
         <v>400</v>
       </c>
-      <c r="G51" s="3">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="H51" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="52" spans="4:8">
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
     </row>
     <row r="53" spans="4:8">
       <c r="D53" s="4"/>
@@ -2613,120 +2638,101 @@
       <c r="G53" s="4"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="54" spans="4:8">
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:8">
+      <c r="A55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8">
-      <c r="D57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="6:8">
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:8">
-      <c r="A59" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2" t="s">
+      <c r="G56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="8" t="s">
+      <c r="B57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D60" s="3">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3</v>
-      </c>
+      <c r="D57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8">
+      <c r="D58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
@@ -2744,11 +2750,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="8"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="8"/>
@@ -2756,176 +2782,182 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" s="1" customFormat="1" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="3">
-        <v>15</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="3">
-        <v>10</v>
-      </c>
-      <c r="G65" s="3">
-        <v>10</v>
-      </c>
-      <c r="H65" s="3">
-        <v>10</v>
-      </c>
+    <row r="64" spans="3:8">
+      <c r="C64" s="8"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>138</v>
+      <c r="C66" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D66" s="3">
-        <v>14400</v>
+        <v>15</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F66" s="3">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10</v>
+      </c>
+      <c r="H66" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="3">
         <v>14400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="E67" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" s="3">
         <v>14400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="G67" s="3">
         <v>14400</v>
       </c>
-    </row>
-    <row r="67" spans="6:8">
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3">
+        <v>14400</v>
+      </c>
     </row>
     <row r="68" spans="6:8">
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="3" t="s">
+    <row r="69" spans="6:8">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
+      <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>143</v>
+      <c r="E70" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
+        <v>146</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2944,7 +2976,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2952,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2960,7 +2992,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="25200" windowHeight="10280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>id(vertical)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>[0.7,0.9,1.1,1.3,1.8]</t>
+  </si>
+  <si>
+    <t>[0.7,0.9,1.1,1.3,1.5]</t>
   </si>
   <si>
     <t>spawnVirusInterval</t>
@@ -488,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -508,24 +511,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,14 +526,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,47 +623,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -621,9 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,21 +654,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -667,19 +670,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,55 +808,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,31 +826,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,48 +844,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,18 +851,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,8 +867,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,26 +921,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,171 +961,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,54 +1140,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1480,27 +1483,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="45.45" style="2" customWidth="1"/>
+    <col min="1" max="1" width="45.4519230769231" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.2583333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="42.2" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.0416666666667" style="2" customWidth="1"/>
-    <col min="6" max="8" width="30.7666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.7666666666667" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.3" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.2596153846154" style="2" customWidth="1"/>
+    <col min="4" max="4" width="42.2019230769231" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.0384615384615" style="2" customWidth="1"/>
+    <col min="6" max="8" width="30.7692307692308" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1538461538462" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.7692307692308" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.2980769230769" style="2" customWidth="1"/>
     <col min="13" max="13" width="15.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="20.8833333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="20.8846153846154" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1578,7 +1581,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="16" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1595,264 +1598,264 @@
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="4">
         <v>0.05</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4">
         <v>0.05</v>
@@ -1866,19 +1869,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>0.1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="4">
         <v>0.1</v>
@@ -1892,19 +1895,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4">
         <v>0.1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4">
         <v>0.1</v>
@@ -1918,19 +1921,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F20" s="4">
         <v>0.08</v>
@@ -1944,19 +1947,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3">
         <v>0.5</v>
@@ -1970,19 +1973,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3">
         <v>0.05</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3">
         <v>0.05</v>
@@ -1996,19 +1999,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F23" s="3">
         <v>20</v>
@@ -2022,19 +2025,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="3">
         <v>0.2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3">
         <v>0.2</v>
@@ -2048,19 +2051,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -2074,19 +2077,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="3">
         <v>0.1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3">
         <v>0.1</v>
@@ -2100,13 +2103,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3">
         <v>0.2</v>
@@ -2133,7 +2136,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5"/>
@@ -2142,19 +2145,19 @@
     </row>
     <row r="31" s="2" customFormat="1" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3">
         <v>6</v>
@@ -2168,19 +2171,19 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="3">
         <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3">
         <v>6</v>
@@ -2194,19 +2197,19 @@
     </row>
     <row r="33" s="2" customFormat="1" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2220,19 +2223,19 @@
     </row>
     <row r="34" s="2" customFormat="1" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3">
         <v>40</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3">
         <v>40</v>
@@ -2246,19 +2249,19 @@
     </row>
     <row r="35" s="2" customFormat="1" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="3">
         <v>500</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35" s="3">
         <v>500</v>
@@ -2272,13 +2275,13 @@
     </row>
     <row r="36" s="2" customFormat="1" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3">
         <v>1.5</v>
@@ -2295,82 +2298,82 @@
     </row>
     <row r="37" s="2" customFormat="1" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -2387,19 +2390,19 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" s="3">
         <v>300</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
@@ -2413,13 +2416,13 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D42" s="3">
         <v>5</v>
@@ -2436,13 +2439,13 @@
     </row>
     <row r="43" s="2" customFormat="1" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -2459,13 +2462,13 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="3">
         <v>60</v>
@@ -2482,13 +2485,13 @@
     </row>
     <row r="45" s="2" customFormat="1" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D45" s="3">
         <v>5</v>
@@ -2519,7 +2522,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2529,13 +2532,13 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3">
         <v>26</v>
@@ -2553,13 +2556,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="3">
         <v>120</v>
@@ -2577,13 +2580,13 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" s="3">
         <v>400</v>
@@ -2615,7 +2618,7 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -2625,51 +2628,51 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="4:8">
@@ -2685,7 +2688,7 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D59" s="7"/>
       <c r="F59" s="7"/>
@@ -2694,19 +2697,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D60" s="3">
         <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F60" s="3">
         <v>3</v>
@@ -2720,19 +2723,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" s="3">
         <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F61" s="3">
         <v>3</v>
@@ -2758,7 +2761,7 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="7"/>
@@ -2768,19 +2771,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="3">
         <v>15</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F65" s="3">
         <v>10</v>
@@ -2794,19 +2797,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D66" s="3">
         <v>14400</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F66" s="3">
         <v>14400</v>
@@ -2830,44 +2833,44 @@
     </row>
     <row r="69" s="1" customFormat="1" ht="179" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D71" s="3">
         <v>1</v>
@@ -2884,48 +2887,48 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +2939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2944,7 +2947,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2952,7 +2955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2960,7 +2963,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableConst.xlsx
+++ b/DestroyViruses/Assets/Tables/TableConst.xlsx
@@ -364,7 +364,7 @@
     <t>游戏打分提示（关卡）</t>
   </si>
   <si>
-    <t>[10,15,25,40,60,80,100]</t>
+    <t>[10,20,30,40,60,80,100,120,140,160,180,220,260,300]</t>
   </si>
   <si>
     <t>关卡</t>
@@ -502,8 +502,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,6 +534,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -543,15 +551,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,6 +566,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,19 +587,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,23 +605,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,16 +618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,7 +628,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,13 +649,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -685,181 +685,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,9 +884,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,17 +917,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,13 +941,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,142 +973,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1496,8 +1496,8 @@
   <sheetPr/>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
